--- a/CASE_E_output_B.xlsx
+++ b/CASE_E_output_B.xlsx
@@ -610,10 +610,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K2" t="n">
         <v>4</v>
@@ -631,7 +631,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>4</v>
@@ -655,13 +655,13 @@
         <v>4</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y2" t="n">
         <v>4</v>
       </c>
       <c r="Z2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA2" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>4</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1165,10 +1165,10 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>4</v>
@@ -1177,7 +1177,7 @@
         <v>4</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>1</v>
@@ -1198,7 +1198,7 @@
         <v>4</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1520,7 +1520,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J12" t="n">
         <v>4</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>4</v>
@@ -1596,13 +1596,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F13" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>4</v>
@@ -1617,13 +1617,13 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" t="n">
         <v>3</v>
       </c>
       <c r="M13" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>4</v>
@@ -1638,13 +1638,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S13" t="n">
         <v>3</v>
       </c>
       <c r="T13" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>4</v>
@@ -1659,13 +1659,13 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AB13" t="n">
         <v>4</v>
@@ -1784,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
         <v>3</v>
@@ -1805,13 +1805,13 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N15" t="n">
         <v>3</v>
       </c>
       <c r="O15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U15" t="n">
         <v>3</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>3</v>
@@ -2032,7 +2032,7 @@
         <v>0</v>
       </c>
       <c r="AB17" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AC17" t="n">
         <v>4</v>
@@ -2342,7 +2342,7 @@
         <v>4</v>
       </c>
       <c r="J21" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2384,7 +2384,7 @@
         <v>4</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L23" t="n">
         <v>4</v>
@@ -2548,7 +2548,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>4</v>
@@ -2891,7 +2891,7 @@
         <v>3</v>
       </c>
       <c r="K27" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -2996,7 +2996,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>19707</v>
+        <v>19193</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -3022,7 +3022,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F83"/>
+  <dimension ref="A1:F81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3199,21 +3199,21 @@
         <v>3</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
       </c>
       <c r="F8" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -3221,40 +3221,40 @@
         <v>3</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E9" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F9" t="n">
-        <v>2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E10" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F10" t="n">
         <v>-3</v>
@@ -3265,21 +3265,21 @@
         <v>4</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
       </c>
       <c r="F11" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12">
@@ -3287,43 +3287,43 @@
         <v>4</v>
       </c>
       <c r="B12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E12" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F12" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E13" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F13" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="14">
@@ -3331,21 +3331,21 @@
         <v>5</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
       </c>
       <c r="F14" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15">
@@ -3361,13 +3361,13 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E15" t="n">
         <v>6</v>
       </c>
       <c r="F15" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="16">
@@ -3515,13 +3515,13 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E22" t="n">
         <v>8</v>
       </c>
       <c r="F22" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="23">
@@ -3639,21 +3639,21 @@
         <v>10</v>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E28" t="n">
         <v>8</v>
       </c>
       <c r="F28" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
@@ -3661,43 +3661,43 @@
         <v>10</v>
       </c>
       <c r="B29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E29" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F29" t="n">
-        <v>2</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B30" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E30" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F30" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="31">
@@ -3705,21 +3705,21 @@
         <v>11</v>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E31" t="n">
         <v>8</v>
       </c>
       <c r="F31" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32">
@@ -3727,18 +3727,18 @@
         <v>11</v>
       </c>
       <c r="B32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E32" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F32" t="n">
         <v>-1</v>
@@ -3746,24 +3746,24 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B33" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D33" t="n">
         <v>5</v>
       </c>
       <c r="E33" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F33" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="34">
@@ -3771,21 +3771,21 @@
         <v>12</v>
       </c>
       <c r="B34" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E34" t="n">
         <v>8</v>
       </c>
       <c r="F34" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="35">
@@ -3801,13 +3801,13 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E35" t="n">
         <v>6</v>
       </c>
       <c r="F35" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="36">
@@ -3911,13 +3911,13 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E40" t="n">
         <v>8</v>
       </c>
       <c r="F40" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="41">
@@ -3955,13 +3955,13 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E42" t="n">
         <v>8</v>
       </c>
       <c r="F42" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="43">
@@ -3999,13 +3999,13 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E44" t="n">
         <v>6</v>
       </c>
       <c r="F44" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="45">
@@ -4079,21 +4079,21 @@
         <v>17</v>
       </c>
       <c r="B48" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E48" t="n">
         <v>8</v>
       </c>
       <c r="F48" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49">
@@ -4101,40 +4101,40 @@
         <v>17</v>
       </c>
       <c r="B49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E49" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F49" t="n">
-        <v>2</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B50" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E50" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F50" t="n">
         <v>-3</v>
@@ -4145,21 +4145,21 @@
         <v>18</v>
       </c>
       <c r="B51" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E51" t="n">
         <v>8</v>
       </c>
       <c r="F51" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52">
@@ -4167,18 +4167,18 @@
         <v>18</v>
       </c>
       <c r="B52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E52" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F52" t="n">
         <v>-1</v>
@@ -4186,24 +4186,24 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B53" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E53" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F53" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="54">
@@ -4211,21 +4211,21 @@
         <v>19</v>
       </c>
       <c r="B54" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E54" t="n">
         <v>8</v>
       </c>
       <c r="F54" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="55">
@@ -4233,40 +4233,40 @@
         <v>19</v>
       </c>
       <c r="B55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E55" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F55" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B56" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E56" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F56" t="n">
         <v>-2</v>
@@ -4277,11 +4277,11 @@
         <v>20</v>
       </c>
       <c r="B57" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D57" t="n">
@@ -4299,43 +4299,43 @@
         <v>20</v>
       </c>
       <c r="B58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E58" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F58" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B59" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E59" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F59" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="60">
@@ -4343,11 +4343,11 @@
         <v>21</v>
       </c>
       <c r="B60" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D60" t="n">
@@ -4365,43 +4365,43 @@
         <v>21</v>
       </c>
       <c r="B61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E61" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F61" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B62" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E62" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F62" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="63">
@@ -4409,11 +4409,11 @@
         <v>22</v>
       </c>
       <c r="B63" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D63" t="n">
@@ -4431,43 +4431,43 @@
         <v>22</v>
       </c>
       <c r="B64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D64" t="n">
         <v>5</v>
       </c>
       <c r="E64" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F64" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B65" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D65" t="n">
         <v>5</v>
       </c>
       <c r="E65" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F65" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="66">
@@ -4475,21 +4475,21 @@
         <v>23</v>
       </c>
       <c r="B66" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E66" t="n">
         <v>8</v>
       </c>
       <c r="F66" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="67">
@@ -4497,43 +4497,43 @@
         <v>23</v>
       </c>
       <c r="B67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D67" t="n">
         <v>4</v>
       </c>
       <c r="E67" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F67" t="n">
-        <v>-4</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E68" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F68" t="n">
-        <v>-3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69">
@@ -4541,65 +4541,65 @@
         <v>24</v>
       </c>
       <c r="B69" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E69" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F69" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B70" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E70" t="n">
         <v>8</v>
       </c>
       <c r="F70" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E71" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F71" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="72">
@@ -4607,62 +4607,62 @@
         <v>25</v>
       </c>
       <c r="B72" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D72" t="n">
         <v>5</v>
       </c>
       <c r="E72" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F72" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B73" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E73" t="n">
         <v>8</v>
       </c>
       <c r="F73" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E74" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F74" t="n">
         <v>-1</v>
@@ -4673,65 +4673,65 @@
         <v>26</v>
       </c>
       <c r="B75" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E75" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F75" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B76" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E76" t="n">
         <v>8</v>
       </c>
       <c r="F76" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E77" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F77" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="78">
@@ -4739,33 +4739,33 @@
         <v>27</v>
       </c>
       <c r="B78" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E78" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F78" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B79" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D79" t="n">
@@ -4780,21 +4780,21 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E80" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F80" t="n">
         <v>-2</v>
@@ -4805,64 +4805,20 @@
         <v>28</v>
       </c>
       <c r="B81" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E81" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F81" t="n">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="n">
-        <v>28</v>
-      </c>
-      <c r="B82" t="n">
-        <v>3</v>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D82" t="n">
-        <v>6</v>
-      </c>
-      <c r="E82" t="n">
-        <v>8</v>
-      </c>
-      <c r="F82" t="n">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="n">
-        <v>28</v>
-      </c>
-      <c r="B83" t="n">
-        <v>4</v>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D83" t="n">
-        <v>5</v>
-      </c>
-      <c r="E83" t="n">
-        <v>6</v>
-      </c>
-      <c r="F83" t="n">
         <v>-1</v>
       </c>
     </row>

--- a/CASE_E_output_B.xlsx
+++ b/CASE_E_output_B.xlsx
@@ -610,10 +610,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>4</v>
@@ -631,7 +631,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q2" t="n">
         <v>4</v>
@@ -655,7 +655,7 @@
         <v>4</v>
       </c>
       <c r="X2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>4</v>
@@ -777,7 +777,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E4" t="n">
         <v>3</v>
@@ -986,7 +986,7 @@
         <v>4</v>
       </c>
       <c r="M6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -1001,7 +1001,7 @@
         <v>3</v>
       </c>
       <c r="R6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>4</v>
@@ -1010,7 +1010,7 @@
         <v>4</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1156,19 +1156,19 @@
         <v>4</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" t="n">
         <v>4</v>
@@ -1177,7 +1177,7 @@
         <v>4</v>
       </c>
       <c r="P8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8" t="n">
         <v>1</v>
@@ -1198,10 +1198,10 @@
         <v>4</v>
       </c>
       <c r="W8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>3</v>
@@ -1241,7 +1241,7 @@
         <v>3</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1280,7 +1280,7 @@
         <v>3</v>
       </c>
       <c r="T9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1320,7 +1320,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -1456,7 +1456,7 @@
         <v>1</v>
       </c>
       <c r="R11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1520,7 +1520,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>4</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q12" t="n">
         <v>4</v>
@@ -1568,7 +1568,7 @@
         <v>4</v>
       </c>
       <c r="Y12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z12" t="n">
         <v>1</v>
@@ -1596,13 +1596,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>3</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G13" t="n">
         <v>4</v>
@@ -1617,13 +1617,13 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>3</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N13" t="n">
         <v>4</v>
@@ -1638,13 +1638,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>3</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U13" t="n">
         <v>4</v>
@@ -1659,13 +1659,13 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AB13" t="n">
         <v>4</v>
@@ -1784,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G15" t="n">
         <v>3</v>
@@ -1805,13 +1805,13 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N15" t="n">
         <v>3</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>3</v>
@@ -1863,7 +1863,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1872,7 +1872,7 @@
         <v>3</v>
       </c>
       <c r="E16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>3</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y17" t="n">
         <v>3</v>
@@ -2032,7 +2032,7 @@
         <v>0</v>
       </c>
       <c r="AB17" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AC17" t="n">
         <v>4</v>
@@ -2190,7 +2190,7 @@
         <v>1</v>
       </c>
       <c r="T19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U19" t="n">
         <v>1</v>
@@ -2254,7 +2254,7 @@
         <v>4</v>
       </c>
       <c r="K20" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -2342,7 +2342,7 @@
         <v>4</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2384,7 +2384,7 @@
         <v>4</v>
       </c>
       <c r="X21" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>4</v>
@@ -2548,7 +2548,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S23" t="n">
         <v>4</v>
@@ -2776,7 +2776,7 @@
         <v>3</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2830,7 +2830,7 @@
         <v>3</v>
       </c>
       <c r="U26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>3</v>
@@ -2891,7 +2891,7 @@
         <v>3</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -2996,7 +2996,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>19193</v>
+        <v>19800</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -3022,7 +3022,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F81"/>
+  <dimension ref="A1:F78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3108,24 +3108,24 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F4" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="5">
@@ -3133,11 +3133,11 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -3152,46 +3152,46 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
       </c>
       <c r="F6" t="n">
-        <v>-4</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F7" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -3199,40 +3199,40 @@
         <v>3</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E8" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E9" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F9" t="n">
         <v>-3</v>
@@ -3243,21 +3243,21 @@
         <v>4</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
       </c>
       <c r="F10" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="11">
@@ -3265,18 +3265,18 @@
         <v>4</v>
       </c>
       <c r="B11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E11" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F11" t="n">
         <v>-1</v>
@@ -3284,24 +3284,24 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D12" t="n">
         <v>5</v>
       </c>
       <c r="E12" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F12" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="13">
@@ -3309,62 +3309,62 @@
         <v>5</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E13" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F13" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
       </c>
       <c r="F14" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E15" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F15" t="n">
         <v>-2</v>
@@ -3372,7 +3372,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B16" t="n">
         <v>1</v>
@@ -3394,7 +3394,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B17" t="n">
         <v>3</v>
@@ -3416,7 +3416,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B18" t="n">
         <v>4</v>
@@ -3438,7 +3438,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B19" t="n">
         <v>1</v>
@@ -3449,18 +3449,18 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
       </c>
       <c r="F19" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B20" t="n">
         <v>3</v>
@@ -3471,18 +3471,18 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
       </c>
       <c r="F20" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B21" t="n">
         <v>4</v>
@@ -3493,18 +3493,18 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E21" t="n">
         <v>6</v>
       </c>
       <c r="F21" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B22" t="n">
         <v>1</v>
@@ -3526,7 +3526,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B23" t="n">
         <v>3</v>
@@ -3537,18 +3537,18 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E23" t="n">
         <v>8</v>
       </c>
       <c r="F23" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B24" t="n">
         <v>4</v>
@@ -3570,7 +3570,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B25" t="n">
         <v>1</v>
@@ -3581,18 +3581,18 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E25" t="n">
         <v>8</v>
       </c>
       <c r="F25" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B26" t="n">
         <v>3</v>
@@ -3603,18 +3603,18 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E26" t="n">
         <v>8</v>
       </c>
       <c r="F26" t="n">
-        <v>-4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B27" t="n">
         <v>4</v>
@@ -3625,57 +3625,57 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E27" t="n">
         <v>6</v>
       </c>
       <c r="F27" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E28" t="n">
         <v>8</v>
       </c>
       <c r="F28" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E29" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F29" t="n">
-        <v>-4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30">
@@ -3683,48 +3683,48 @@
         <v>11</v>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D30" t="n">
         <v>5</v>
       </c>
       <c r="E30" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F30" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E31" t="n">
         <v>8</v>
       </c>
       <c r="F31" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B32" t="n">
         <v>4</v>
@@ -3735,18 +3735,18 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E32" t="n">
         <v>6</v>
       </c>
       <c r="F32" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B33" t="n">
         <v>1</v>
@@ -3757,18 +3757,18 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E33" t="n">
         <v>8</v>
       </c>
       <c r="F33" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B34" t="n">
         <v>3</v>
@@ -3779,18 +3779,18 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E34" t="n">
         <v>8</v>
       </c>
       <c r="F34" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B35" t="n">
         <v>4</v>
@@ -3801,18 +3801,18 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E35" t="n">
         <v>6</v>
       </c>
       <c r="F35" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B36" t="n">
         <v>1</v>
@@ -3834,7 +3834,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B37" t="n">
         <v>3</v>
@@ -3856,7 +3856,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B38" t="n">
         <v>4</v>
@@ -3878,7 +3878,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B39" t="n">
         <v>1</v>
@@ -3889,18 +3889,18 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E39" t="n">
         <v>8</v>
       </c>
       <c r="F39" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B40" t="n">
         <v>3</v>
@@ -3922,7 +3922,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B41" t="n">
         <v>4</v>
@@ -3944,7 +3944,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B42" t="n">
         <v>1</v>
@@ -3955,18 +3955,18 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E42" t="n">
         <v>8</v>
       </c>
       <c r="F42" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B43" t="n">
         <v>3</v>
@@ -3977,18 +3977,18 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E43" t="n">
         <v>8</v>
       </c>
       <c r="F43" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B44" t="n">
         <v>4</v>
@@ -3999,18 +3999,18 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E44" t="n">
         <v>6</v>
       </c>
       <c r="F44" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B45" t="n">
         <v>1</v>
@@ -4021,62 +4021,62 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E45" t="n">
         <v>8</v>
       </c>
       <c r="F45" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D46" t="n">
         <v>4</v>
       </c>
       <c r="E46" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F46" t="n">
-        <v>-4</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B47" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E47" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F47" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B48" t="n">
         <v>3</v>
@@ -4087,18 +4087,18 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E48" t="n">
         <v>8</v>
       </c>
       <c r="F48" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B49" t="n">
         <v>4</v>
@@ -4109,18 +4109,18 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E49" t="n">
         <v>6</v>
       </c>
       <c r="F49" t="n">
-        <v>-4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B50" t="n">
         <v>1</v>
@@ -4142,7 +4142,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B51" t="n">
         <v>3</v>
@@ -4164,7 +4164,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B52" t="n">
         <v>4</v>
@@ -4175,18 +4175,18 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E52" t="n">
         <v>6</v>
       </c>
       <c r="F52" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B53" t="n">
         <v>1</v>
@@ -4208,7 +4208,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B54" t="n">
         <v>3</v>
@@ -4219,18 +4219,18 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E54" t="n">
         <v>8</v>
       </c>
       <c r="F54" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B55" t="n">
         <v>4</v>
@@ -4241,18 +4241,18 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E55" t="n">
         <v>6</v>
       </c>
       <c r="F55" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B56" t="n">
         <v>1</v>
@@ -4274,7 +4274,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B57" t="n">
         <v>3</v>
@@ -4296,7 +4296,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B58" t="n">
         <v>4</v>
@@ -4318,7 +4318,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B59" t="n">
         <v>1</v>
@@ -4329,18 +4329,18 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E59" t="n">
         <v>8</v>
       </c>
       <c r="F59" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B60" t="n">
         <v>3</v>
@@ -4351,18 +4351,18 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E60" t="n">
         <v>8</v>
       </c>
       <c r="F60" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B61" t="n">
         <v>4</v>
@@ -4384,7 +4384,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B62" t="n">
         <v>1</v>
@@ -4406,7 +4406,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B63" t="n">
         <v>3</v>
@@ -4417,18 +4417,18 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E63" t="n">
         <v>8</v>
       </c>
       <c r="F63" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B64" t="n">
         <v>4</v>
@@ -4439,76 +4439,76 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E64" t="n">
         <v>6</v>
       </c>
       <c r="F64" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B65" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E65" t="n">
         <v>8</v>
       </c>
       <c r="F65" t="n">
-        <v>-3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E66" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F66" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B67" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E67" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F67" t="n">
         <v>-2</v>
@@ -4516,7 +4516,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B68" t="n">
         <v>3</v>
@@ -4527,18 +4527,18 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E68" t="n">
         <v>8</v>
       </c>
       <c r="F68" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B69" t="n">
         <v>4</v>
@@ -4549,18 +4549,18 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E69" t="n">
         <v>6</v>
       </c>
       <c r="F69" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B70" t="n">
         <v>1</v>
@@ -4571,18 +4571,18 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E70" t="n">
         <v>8</v>
       </c>
       <c r="F70" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B71" t="n">
         <v>3</v>
@@ -4593,18 +4593,18 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E71" t="n">
         <v>8</v>
       </c>
       <c r="F71" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B72" t="n">
         <v>4</v>
@@ -4626,7 +4626,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B73" t="n">
         <v>1</v>
@@ -4637,18 +4637,18 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E73" t="n">
         <v>8</v>
       </c>
       <c r="F73" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B74" t="n">
         <v>3</v>
@@ -4659,18 +4659,18 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E74" t="n">
         <v>8</v>
       </c>
       <c r="F74" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B75" t="n">
         <v>4</v>
@@ -4692,7 +4692,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B76" t="n">
         <v>1</v>
@@ -4714,7 +4714,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B77" t="n">
         <v>3</v>
@@ -4736,7 +4736,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B78" t="n">
         <v>4</v>
@@ -4753,72 +4753,6 @@
         <v>6</v>
       </c>
       <c r="F78" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="n">
-        <v>28</v>
-      </c>
-      <c r="B79" t="n">
-        <v>1</v>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="D79" t="n">
-        <v>6</v>
-      </c>
-      <c r="E79" t="n">
-        <v>8</v>
-      </c>
-      <c r="F79" t="n">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n">
-        <v>28</v>
-      </c>
-      <c r="B80" t="n">
-        <v>3</v>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D80" t="n">
-        <v>6</v>
-      </c>
-      <c r="E80" t="n">
-        <v>8</v>
-      </c>
-      <c r="F80" t="n">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="n">
-        <v>28</v>
-      </c>
-      <c r="B81" t="n">
-        <v>4</v>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D81" t="n">
-        <v>5</v>
-      </c>
-      <c r="E81" t="n">
-        <v>6</v>
-      </c>
-      <c r="F81" t="n">
         <v>-1</v>
       </c>
     </row>
